--- a/database/industries/kaghaz/chekapa/product/yearly.xlsx
+++ b/database/industries/kaghaz/chekapa/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5BFC4A-D7E3-42CC-AC71-3DDD8BB38FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="30">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/08</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/08</t>
   </si>
   <si>
     <t>سایر</t>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +285,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -296,7 +297,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -343,6 +344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -378,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -658,16 +693,16 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="G10" s="9">
-        <v>920</v>
+        <v>444</v>
       </c>
       <c r="H10" s="9">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -688,8 +723,8 @@
       <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -704,19 +739,19 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>14411</v>
+        <v>41080</v>
       </c>
       <c r="F12" s="9">
-        <v>41080</v>
+        <v>15095</v>
       </c>
       <c r="G12" s="9">
-        <v>15095</v>
+        <v>12341</v>
       </c>
       <c r="H12" s="9">
-        <v>12341</v>
+        <v>7328</v>
       </c>
       <c r="I12" s="9">
-        <v>7328</v>
+        <v>28408</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -728,19 +763,19 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>16718</v>
+        <v>15715</v>
       </c>
       <c r="F13" s="11">
-        <v>15715</v>
+        <v>20136</v>
       </c>
       <c r="G13" s="11">
-        <v>20136</v>
+        <v>21461</v>
       </c>
       <c r="H13" s="11">
-        <v>21461</v>
+        <v>20453</v>
       </c>
       <c r="I13" s="11">
-        <v>20453</v>
+        <v>24337</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -752,19 +787,19 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>39332</v>
+        <v>12910</v>
       </c>
       <c r="F14" s="9">
-        <v>12910</v>
+        <v>25201</v>
       </c>
       <c r="G14" s="9">
-        <v>25201</v>
+        <v>24536</v>
       </c>
       <c r="H14" s="9">
-        <v>24536</v>
+        <v>32813</v>
       </c>
       <c r="I14" s="9">
-        <v>32813</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -784,11 +819,11 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+      <c r="H15" s="11">
+        <v>4090</v>
       </c>
       <c r="I15" s="11">
-        <v>4090</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -802,14 +837,14 @@
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>13</v>
+      <c r="F16" s="9">
+        <v>100</v>
       </c>
       <c r="G16" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H16" s="9">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -822,19 +857,19 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>70616</v>
+        <v>69705</v>
       </c>
       <c r="F17" s="13">
-        <v>69705</v>
+        <v>61452</v>
       </c>
       <c r="G17" s="13">
-        <v>61452</v>
+        <v>59182</v>
       </c>
       <c r="H17" s="13">
-        <v>59182</v>
+        <v>64684</v>
       </c>
       <c r="I17" s="13">
-        <v>64684</v>
+        <v>70894</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -908,16 +943,16 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="F23" s="9">
-        <v>203</v>
+        <v>1304</v>
       </c>
       <c r="G23" s="9">
-        <v>1304</v>
+        <v>508</v>
       </c>
       <c r="H23" s="9">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -931,8 +966,8 @@
         <v>22</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
+      <c r="E24" s="11">
+        <v>0</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
@@ -940,8 +975,8 @@
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
+      <c r="H24" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>13</v>
@@ -953,8 +988,8 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>13</v>
+      <c r="E25" s="9">
+        <v>0</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
@@ -978,19 +1013,19 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>13057</v>
+        <v>41544</v>
       </c>
       <c r="F26" s="11">
-        <v>41544</v>
+        <v>15160</v>
       </c>
       <c r="G26" s="11">
-        <v>15160</v>
+        <v>11404</v>
       </c>
       <c r="H26" s="11">
-        <v>11404</v>
+        <v>11660</v>
       </c>
       <c r="I26" s="11">
-        <v>11660</v>
+        <v>26378</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1002,19 +1037,19 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>16711</v>
+        <v>15615</v>
       </c>
       <c r="F27" s="9">
-        <v>15615</v>
+        <v>19108</v>
       </c>
       <c r="G27" s="9">
-        <v>19108</v>
+        <v>23453</v>
       </c>
       <c r="H27" s="9">
-        <v>23453</v>
+        <v>20614</v>
       </c>
       <c r="I27" s="9">
-        <v>20614</v>
+        <v>24401</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1026,19 +1061,19 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>39507</v>
+        <v>17828</v>
       </c>
       <c r="F28" s="11">
-        <v>17828</v>
+        <v>23988</v>
       </c>
       <c r="G28" s="11">
-        <v>23988</v>
+        <v>25278</v>
       </c>
       <c r="H28" s="11">
-        <v>25278</v>
+        <v>34153</v>
       </c>
       <c r="I28" s="11">
-        <v>34153</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1058,11 +1093,11 @@
       <c r="G29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
+      <c r="H29" s="9">
+        <v>3958</v>
       </c>
       <c r="I29" s="9">
-        <v>3958</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1076,14 +1111,14 @@
       <c r="E30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
+      <c r="F30" s="11">
+        <v>100</v>
       </c>
       <c r="G30" s="11">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H30" s="11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <v>0</v>
@@ -1096,19 +1131,19 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>69394</v>
+        <v>75190</v>
       </c>
       <c r="F31" s="15">
-        <v>75190</v>
+        <v>59660</v>
       </c>
       <c r="G31" s="15">
-        <v>59660</v>
+        <v>61043</v>
       </c>
       <c r="H31" s="15">
-        <v>61043</v>
+        <v>70385</v>
       </c>
       <c r="I31" s="15">
-        <v>70385</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1182,16 +1217,16 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>2223</v>
+        <v>12634</v>
       </c>
       <c r="F37" s="9">
-        <v>12634</v>
+        <v>86263</v>
       </c>
       <c r="G37" s="9">
-        <v>86263</v>
+        <v>37553</v>
       </c>
       <c r="H37" s="9">
-        <v>37553</v>
+        <v>0</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
@@ -1205,8 +1240,8 @@
         <v>24</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1214,8 +1249,8 @@
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="H38" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>13</v>
@@ -1229,8 +1264,8 @@
         <v>24</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>13</v>
+      <c r="E39" s="9">
+        <v>0</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -1254,19 +1289,19 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>309902</v>
+        <v>1994396</v>
       </c>
       <c r="F40" s="11">
-        <v>1994396</v>
+        <v>1141643</v>
       </c>
       <c r="G40" s="11">
-        <v>1141643</v>
+        <v>983438</v>
       </c>
       <c r="H40" s="11">
-        <v>983438</v>
+        <v>1189500</v>
       </c>
       <c r="I40" s="11">
-        <v>1189500</v>
+        <v>6011096</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1278,19 +1313,19 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>234686</v>
+        <v>415077</v>
       </c>
       <c r="F41" s="9">
-        <v>415077</v>
+        <v>776820</v>
       </c>
       <c r="G41" s="9">
-        <v>776820</v>
+        <v>1323820</v>
       </c>
       <c r="H41" s="9">
-        <v>1323820</v>
+        <v>2571947</v>
       </c>
       <c r="I41" s="9">
-        <v>2571947</v>
+        <v>3882326</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1302,19 +1337,19 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>1004181</v>
+        <v>695534</v>
       </c>
       <c r="F42" s="11">
-        <v>695534</v>
+        <v>2140624</v>
       </c>
       <c r="G42" s="11">
-        <v>2140624</v>
+        <v>2842643</v>
       </c>
       <c r="H42" s="11">
-        <v>2842643</v>
+        <v>5948694</v>
       </c>
       <c r="I42" s="11">
-        <v>5948694</v>
+        <v>2230915</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1334,11 +1369,11 @@
       <c r="G43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>13</v>
+      <c r="H43" s="9">
+        <v>698683</v>
       </c>
       <c r="I43" s="9">
-        <v>698683</v>
+        <v>2141906</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1352,14 +1387,14 @@
       <c r="E44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
+      <c r="F44" s="11">
+        <v>6298</v>
       </c>
       <c r="G44" s="11">
-        <v>6298</v>
+        <v>22231</v>
       </c>
       <c r="H44" s="11">
-        <v>22231</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
         <v>0</v>
@@ -1372,19 +1407,19 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>1550992</v>
+        <v>3117641</v>
       </c>
       <c r="F45" s="15">
-        <v>3117641</v>
+        <v>4151648</v>
       </c>
       <c r="G45" s="15">
-        <v>4151648</v>
+        <v>5209685</v>
       </c>
       <c r="H45" s="15">
-        <v>5209685</v>
+        <v>10408824</v>
       </c>
       <c r="I45" s="15">
-        <v>10408824</v>
+        <v>14266243</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -1458,16 +1493,16 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>18680672</v>
+        <v>62236453</v>
       </c>
       <c r="F51" s="9">
-        <v>62236453</v>
+        <v>66152607</v>
       </c>
       <c r="G51" s="9">
-        <v>66152607</v>
+        <v>73923228</v>
       </c>
       <c r="H51" s="9">
-        <v>73923228</v>
+        <v>0</v>
       </c>
       <c r="I51" s="9">
         <v>0</v>
@@ -1481,8 +1516,8 @@
         <v>27</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>13</v>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11">
         <v>0</v>
@@ -1490,8 +1525,8 @@
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
+      <c r="H52" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>13</v>
@@ -1502,11 +1537,11 @@
         <v>12</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>13</v>
+      <c r="E53" s="9">
+        <v>0</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
@@ -1530,19 +1565,19 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>23734549</v>
+        <v>48006836</v>
       </c>
       <c r="F54" s="11">
-        <v>48006836</v>
+        <v>75306266</v>
       </c>
       <c r="G54" s="11">
-        <v>75306266</v>
+        <v>86236233</v>
       </c>
       <c r="H54" s="11">
-        <v>86236233</v>
+        <v>102015437</v>
       </c>
       <c r="I54" s="11">
-        <v>102015437</v>
+        <v>227882933</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1554,19 +1589,19 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>14043803</v>
+        <v>26581940</v>
       </c>
       <c r="F55" s="9">
-        <v>26581940</v>
+        <v>40654176</v>
       </c>
       <c r="G55" s="9">
-        <v>40654176</v>
+        <v>56445657</v>
       </c>
       <c r="H55" s="9">
-        <v>56445657</v>
+        <v>124767003</v>
       </c>
       <c r="I55" s="9">
-        <v>124767003</v>
+        <v>159105201</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -1578,19 +1613,19 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>25417799</v>
+        <v>39013574</v>
       </c>
       <c r="F56" s="11">
-        <v>39013574</v>
+        <v>89237285</v>
       </c>
       <c r="G56" s="11">
-        <v>89237285</v>
+        <v>112455218</v>
       </c>
       <c r="H56" s="11">
-        <v>112455218</v>
+        <v>174177788</v>
       </c>
       <c r="I56" s="11">
-        <v>174177788</v>
+        <v>242596237</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -1610,11 +1645,11 @@
       <c r="G57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>13</v>
+      <c r="H57" s="9">
+        <v>176524255</v>
       </c>
       <c r="I57" s="9">
-        <v>176524255</v>
+        <v>241968595</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -1628,14 +1663,14 @@
       <c r="E58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>13</v>
+      <c r="F58" s="11">
+        <v>62980000</v>
       </c>
       <c r="G58" s="11">
-        <v>62980000</v>
+        <v>55577500</v>
       </c>
       <c r="H58" s="11">
-        <v>55577500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -1711,17 +1746,17 @@
         <v>24</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>13</v>
+      <c r="E64" s="9">
+        <v>-2942</v>
       </c>
       <c r="F64" s="9">
-        <v>-2942</v>
+        <v>-17532</v>
       </c>
       <c r="G64" s="9">
-        <v>-17532</v>
+        <v>-8563</v>
       </c>
       <c r="H64" s="9">
-        <v>-8563</v>
+        <v>0</v>
       </c>
       <c r="I64" s="9">
         <v>0</v>
@@ -1735,8 +1770,8 @@
         <v>24</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>13</v>
+      <c r="E65" s="11">
+        <v>0</v>
       </c>
       <c r="F65" s="11">
         <v>0</v>
@@ -1744,8 +1779,8 @@
       <c r="G65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="H65" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>13</v>
@@ -1759,8 +1794,8 @@
         <v>24</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>13</v>
+      <c r="E66" s="9">
+        <v>0</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -1783,20 +1818,20 @@
         <v>24</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>-1057399</v>
       </c>
       <c r="F67" s="11">
-        <v>-1057399</v>
+        <v>-584291</v>
       </c>
       <c r="G67" s="11">
-        <v>-584291</v>
+        <v>-529022</v>
       </c>
       <c r="H67" s="11">
-        <v>-529022</v>
+        <v>-772065</v>
       </c>
       <c r="I67" s="11">
-        <v>-772065</v>
+        <v>-3284908</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -1807,20 +1842,20 @@
         <v>24</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>13</v>
+      <c r="E68" s="9">
+        <v>-335535</v>
       </c>
       <c r="F68" s="9">
-        <v>-335535</v>
+        <v>-547021</v>
       </c>
       <c r="G68" s="9">
-        <v>-547021</v>
+        <v>-931041</v>
       </c>
       <c r="H68" s="9">
-        <v>-931041</v>
+        <v>-2049109</v>
       </c>
       <c r="I68" s="9">
-        <v>-2049109</v>
+        <v>-3637092</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -1831,20 +1866,20 @@
         <v>24</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
+      <c r="E69" s="11">
+        <v>-477657</v>
       </c>
       <c r="F69" s="11">
-        <v>-477657</v>
+        <v>-1273788</v>
       </c>
       <c r="G69" s="11">
-        <v>-1273788</v>
+        <v>-1859376</v>
       </c>
       <c r="H69" s="11">
-        <v>-1859376</v>
+        <v>-4269255</v>
       </c>
       <c r="I69" s="11">
-        <v>-4269255</v>
+        <v>-1817402</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -1864,11 +1899,11 @@
       <c r="G70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
+      <c r="H70" s="9">
+        <v>-433872</v>
       </c>
       <c r="I70" s="9">
-        <v>-433872</v>
+        <v>-1851379</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -1882,14 +1917,14 @@
       <c r="E71" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>13</v>
+      <c r="F71" s="11">
+        <v>-6298</v>
       </c>
       <c r="G71" s="11">
-        <v>-6298</v>
+        <v>-22231</v>
       </c>
       <c r="H71" s="11">
-        <v>-22231</v>
+        <v>0</v>
       </c>
       <c r="I71" s="11">
         <v>0</v>
@@ -1902,19 +1937,19 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>-1873533</v>
       </c>
       <c r="F72" s="15">
-        <v>-1873533</v>
+        <v>-2428930</v>
       </c>
       <c r="G72" s="15">
-        <v>-2428930</v>
+        <v>-3350233</v>
       </c>
       <c r="H72" s="15">
-        <v>-3350233</v>
+        <v>-7524301</v>
       </c>
       <c r="I72" s="15">
-        <v>-7524301</v>
+        <v>-10590781</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -1987,17 +2022,17 @@
         <v>24</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>13</v>
+      <c r="E78" s="9">
+        <v>9692</v>
       </c>
       <c r="F78" s="9">
-        <v>9692</v>
+        <v>68731</v>
       </c>
       <c r="G78" s="9">
-        <v>68731</v>
+        <v>28990</v>
       </c>
       <c r="H78" s="9">
-        <v>28990</v>
+        <v>0</v>
       </c>
       <c r="I78" s="9">
         <v>0</v>
@@ -2017,11 +2052,11 @@
       <c r="F79" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>13</v>
@@ -2041,8 +2076,8 @@
       <c r="F80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>13</v>
+      <c r="G80" s="9">
+        <v>0</v>
       </c>
       <c r="H80" s="9">
         <v>0</v>
@@ -2059,20 +2094,20 @@
         <v>24</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>13</v>
+      <c r="E81" s="11">
+        <v>936997</v>
       </c>
       <c r="F81" s="11">
-        <v>936997</v>
+        <v>557352</v>
       </c>
       <c r="G81" s="11">
-        <v>557352</v>
+        <v>454416</v>
       </c>
       <c r="H81" s="11">
-        <v>454416</v>
+        <v>417435</v>
       </c>
       <c r="I81" s="11">
-        <v>417435</v>
+        <v>2726188</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2083,20 +2118,20 @@
         <v>24</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>13</v>
+      <c r="E82" s="9">
+        <v>79542</v>
       </c>
       <c r="F82" s="9">
-        <v>79542</v>
+        <v>229799</v>
       </c>
       <c r="G82" s="9">
-        <v>229799</v>
+        <v>392779</v>
       </c>
       <c r="H82" s="9">
-        <v>392779</v>
+        <v>522838</v>
       </c>
       <c r="I82" s="9">
-        <v>522838</v>
+        <v>245234</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -2107,20 +2142,20 @@
         <v>24</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
+      <c r="E83" s="11">
+        <v>217877</v>
       </c>
       <c r="F83" s="11">
-        <v>217877</v>
+        <v>866836</v>
       </c>
       <c r="G83" s="11">
-        <v>866836</v>
+        <v>983267</v>
       </c>
       <c r="H83" s="11">
-        <v>983267</v>
+        <v>1679439</v>
       </c>
       <c r="I83" s="11">
-        <v>1679439</v>
+        <v>413513</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2140,11 +2175,11 @@
       <c r="G84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
+      <c r="H84" s="9">
+        <v>264811</v>
       </c>
       <c r="I84" s="9">
-        <v>264811</v>
+        <v>290527</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2158,8 +2193,8 @@
       <c r="E85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>13</v>
+      <c r="F85" s="11">
+        <v>0</v>
       </c>
       <c r="G85" s="11">
         <v>0</v>
@@ -2178,19 +2213,19 @@
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>0</v>
+        <v>1244108</v>
       </c>
       <c r="F86" s="15">
-        <v>1244108</v>
+        <v>1722718</v>
       </c>
       <c r="G86" s="15">
-        <v>1722718</v>
+        <v>1859452</v>
       </c>
       <c r="H86" s="15">
-        <v>1859452</v>
+        <v>2884523</v>
       </c>
       <c r="I86" s="15">
-        <v>2884523</v>
+        <v>3675462</v>
       </c>
     </row>
   </sheetData>
